--- a/biology/Médecine/Renoncement_aux_soins/Renoncement_aux_soins.xlsx
+++ b/biology/Médecine/Renoncement_aux_soins/Renoncement_aux_soins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le renoncement aux soins est l'attitude d'un patient qui renonce à des soins de santé dont il aurait pourtant besoin. Les raisons en sont variées : motifs financiers (c'est-à-dire des revenus trop faibles et une assurance maladie insuffisante pour couvrir les frais), difficulté à obtenir un rendez-vous dans un délai raisonnable[1], etc.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le renoncement aux soins est l'attitude d'un patient qui renonce à des soins de santé dont il aurait pourtant besoin. Les raisons en sont variées : motifs financiers (c'est-à-dire des revenus trop faibles et une assurance maladie insuffisante pour couvrir les frais), difficulté à obtenir un rendez-vous dans un délai raisonnable, etc.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Le renoncement aux soins : un indicateur d’inégalités sociales</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le renoncement aux soins permet d'identifier "les facteurs objectifs et subjectifs de non-recours à un soin ou à un professionnel de santé". Plusieurs études existent (dont le BRS[2]) et montrent que les personnes en situation de précarité sont les plus touchées[3].
-Une personne sur quatre est touchée par le renoncement au soin[4]</t>
+Le renoncement aux soins permet d'identifier "les facteurs objectifs et subjectifs de non-recours à un soin ou à un professionnel de santé". Plusieurs études existent (dont le BRS) et montrent que les personnes en situation de précarité sont les plus touchées.
+Une personne sur quatre est touchée par le renoncement au soin</t>
         </is>
       </c>
     </row>
@@ -543,12 +557,14 @@
           <t>Les motifs de renoncements aux soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs raisons qui conduisent les personnes à ne pas se faire soigner, comme par exemple :
 complexité des démarches vers les soins ;
 ne possède pas de véhicule pour se déplacer ;
-des territoires en manque de médecins : en 2022, une quarantaine de départements français sont sous le seuil critique de 40 professionnels pour 100 000 habitants[5] ;
+des territoires en manque de médecins : en 2022, une quarantaine de départements français sont sous le seuil critique de 40 professionnels pour 100 000 habitants ;
 délais de rendez-vous trop longs ;
 la peur de se rendre chez le professionnel de santé ;
 l'absence d'une complémentaire santé ;
@@ -583,9 +599,11 @@
           <t>Les "personnes pauvres" sont les plus touchées par le renoncement aux soins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’après l’enquête "Statistiques sur les ressources et conditions de vie" (SRCV) réalisée par l’Insee en 2017, les "personnes pauvres" ont 3 fois plus de risques de renoncer à des soins que les autres[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’après l’enquête "Statistiques sur les ressources et conditions de vie" (SRCV) réalisée par l’Insee en 2017, les "personnes pauvres" ont 3 fois plus de risques de renoncer à des soins que les autres.
 </t>
         </is>
       </c>
